--- a/GATEWAY/A1#111JUNIORBIT00/SOSEPE_S.R.L/JUNIORBIT/7/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111JUNIORBIT00/SOSEPE_S.R.L/JUNIORBIT/7/accreditamento-checklist_V8.2.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SERVIZI REGIONALI\Nazionale\FSE 2.0 2022-2026\CASE TEST PSS 1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51744341-E6D7-4844-A9C7-4284396D8BF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA45BD-9E3F-40F5-9336-CF35FEABC3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="975" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="470">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1729,6 +1729,94 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.467ffdcd304925eefdbefe1090e5ac75d679495c7e3561c8f0d3a0514d37260c.54f2499907^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-29T14:17:57Z</t>
+  </si>
+  <si>
+    <t>1373d9a6af7044db</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>Il test è stato effettuato per completezza e per mostrarvi l'eventuale finestra di dialogo che viene mostrata al medico in caso di errore.</t>
+  </si>
+  <si>
+    <t>Per quanto riguarda questo specifico test non c'è possibilità da parte del medico di modificare il contenuto dei campi presenti nel token che vengono demandati completamente all'applicativo nella sua compilazione.</t>
+  </si>
+  <si>
+    <t>In conclusione, è l'applicativo che, a priori, compila i valori del JWT e il PLS non ha nessun tipo di accesso alla sua compilazione.</t>
+  </si>
+  <si>
+    <t>Il PLS viene avvisato con l'errore mostrato a video e viene annullato l'invio del PS.
+Il test è stato effettuato per completezza e per mostrarvi l'eventuale finestra di dialogo che viene mostrata al medico in caso di errore.
+Per quanto riguarda questo specifico test non c'è possibilità da parte del medico di modificare il contenuto dei campi presenti nel token che vengono demandati completamente all'applicativo nella sua compilazione.
+In conclusione, è l'applicativo che, a priori, compila i valori del JWT e il PLS non ha nessun tipo di accesso alla sua compilazione.</t>
+  </si>
+  <si>
+    <t>2024-01-29T14:24:14Z</t>
+  </si>
+  <si>
+    <t>fae42361425536ee</t>
+  </si>
+  <si>
+    <t>Il PLS viene avvisato con l'errore mostrato a video e viene annullato l'invio del PS.
+Il test è stato effettuato per completezza e per mostrarvi l'eventuale finestra di dialogo che viene mostrata al medico in caso di errore.
+Per quanto riguarda questo specifico test non c'è possibilità da parte del medico di modificare il contenuto dei campi presenti nel token che vengono demandati completamente all'applicativo nella sua compilazione.
+In conclusione, è l'applicativo che, a priori, compila i valori del JWT e il PLS non ha nessun tipo di accesso alla sua compilazione</t>
+  </si>
+  <si>
+    <t>Viene mostrato un errore a video contenente il messaggio 
+"Impossibile contattare il servizio di validazione"
+"Il problema potrebbe essere momentaneo perciò si invita a riprovare in un secondo momento"
+"Se il problema dovesse persistere contattere l'help desk di Junior Bit."</t>
+  </si>
+  <si>
+    <t>2023-11-09T12:01:01Z</t>
+  </si>
+  <si>
+    <t>259d37d522348629</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.200.4.4.442cad0d64820a099ee7d33aad276c1f1bd4920047942c752dded4917b27f7d3.c2c25144bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Essendo comunque una sezione obbligatoria, non c'è modo che il medico possa omettere questa sezione nel compilare il CDA</t>
+  </si>
+  <si>
+    <t>Il blocco narrativo viene montato come conseguente presenza del blocco strutturato.
+Il medico non ha alcuno strumento per far si che, inserendo una o più vaccinazioni, possa omettere il blocco narrativo.</t>
+  </si>
+  <si>
+    <t>La sezione "Visite e ricoveri" essendo opzionale da specifiche, non viene inserita nello structure body</t>
+  </si>
+  <si>
+    <t>L'interfaccia di inserimento di una terapia farmacologica NON prevede che sia possibile il salvataggio in assenza di una data di inzio della terapia.
+Risulta quindi impossibile per il medico cercare di validare un CDA dove questo dato risulti assente.</t>
+  </si>
+  <si>
+    <t>L'intefaccia di inserimento di un familiare nella seziona anamnesi Famialiare, obbliga il medico all'inserimento del grado di parentela da una combobox non editabile e internamente codificata con i valori da inserire successivamente nel CDA2 del PS.
+Risulta quindi impossibile non popolare il valore dell'attributo code in oggetto di test.</t>
+  </si>
+  <si>
+    <t>In fase di registrazione di un'allergia o intolleranza all'interno dell'applicativo di cartella, viene SEMPRE registrata la data di inserimento e registrazione che verrà poi utilizzata per popolare il campo CDA2 in oggetto.
+Risulta quindi impossibile da parte del medico che chiama i servizi di validazione CDA2, omettere questa data.</t>
+  </si>
+  <si>
+    <t>Analogamente a VALIDAZIONE_CDA2_PSS_CT18_KO, quando il medico inserisce una nuova allergia o intolleranza viene SEMPRE richiesto l'agente (o il principio attivo) che ha scatenato questa reazione.
+Risulta quindi impossibile da parte del medico omettere questa informazione all'interno del CDA2 PS.</t>
+  </si>
+  <si>
+    <t>L'interfaccia permette l'inserimento delle voci già codificate senza permettere nessun inserimento a testo libero.
+Di conseguenza non c'è possibilità da parte del medico che inserisca queste informazioni con sistemi di codifica diversi da quelli enunciati.</t>
+  </si>
+  <si>
+    <t>Il code in oggetto viene popolato automaticamente dal software di cartella, non c'è possibilità da parte del medico che editi in qualche modo questa voce.
+Il campo viene sempre popolato a "S".</t>
+  </si>
+  <si>
+    <t>Accreditamento già eseguito</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1978,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2208,12 +2296,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2367,6 +2483,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2375,6 +2497,10 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2383,10 +2509,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2692,7 +2814,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3840,11 +3962,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W750"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I193" sqref="I193"/>
+      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3886,14 +4008,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="64"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3914,14 +4036,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3942,12 +4064,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="69" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="71" t="s">
         <v>441</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3969,12 +4091,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71" t="s">
         <v>442</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="64"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3995,8 +4117,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4258,20 +4380,38 @@
       <c r="E13" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="38"/>
+      <c r="F13" s="57">
+        <v>45320</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
+      <c r="M13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
+      <c r="P13" s="38" t="s">
+        <v>226</v>
+      </c>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="S13" s="38" t="s">
+        <v>452</v>
+      </c>
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
       <c r="V13" s="40"/>
@@ -4308,7 +4448,9 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="S14" s="38" t="s">
+        <v>449</v>
+      </c>
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
       <c r="V14" s="40"/>
@@ -4345,7 +4487,9 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="S15" s="38" t="s">
+        <v>450</v>
+      </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
       <c r="V15" s="40"/>
@@ -4382,7 +4526,9 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="S16" s="38" t="s">
+        <v>451</v>
+      </c>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
       <c r="V16" s="40"/>
@@ -4554,20 +4700,38 @@
       <c r="E21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="38"/>
+      <c r="F21" s="57">
+        <v>45320</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="H21" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="M21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
+      <c r="P21" s="38" t="s">
+        <v>226</v>
+      </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="S21" s="38" t="s">
+        <v>455</v>
+      </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
       <c r="V21" s="40"/>
@@ -4858,16 +5022,30 @@
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="38"/>
+      <c r="J29" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
+      <c r="M29" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
+      <c r="P29" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q29" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="S29" s="38" t="s">
+        <v>456</v>
+      </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
         <v>64</v>
@@ -8640,11 +8818,21 @@
       <c r="E131" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="38"/>
+      <c r="F131" s="57">
+        <v>45239</v>
+      </c>
+      <c r="G131" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H131" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="I131" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="J131" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K131" s="38"/>
       <c r="L131" s="38"/>
       <c r="M131" s="38"/>
@@ -8681,8 +8869,12 @@
       <c r="G132" s="37"/>
       <c r="H132" s="37"/>
       <c r="I132" s="42"/>
-      <c r="J132" s="38"/>
-      <c r="K132" s="38"/>
+      <c r="J132" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K132" s="38" t="s">
+        <v>231</v>
+      </c>
       <c r="L132" s="38"/>
       <c r="M132" s="38"/>
       <c r="N132" s="38"/>
@@ -8718,8 +8910,12 @@
       <c r="G133" s="37"/>
       <c r="H133" s="37"/>
       <c r="I133" s="42"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
+      <c r="J133" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K133" s="38" t="s">
+        <v>230</v>
+      </c>
       <c r="L133" s="38"/>
       <c r="M133" s="38"/>
       <c r="N133" s="38"/>
@@ -8755,8 +8951,12 @@
       <c r="G134" s="37"/>
       <c r="H134" s="37"/>
       <c r="I134" s="42"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38"/>
+      <c r="J134" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K134" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L134" s="38"/>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8792,8 +8992,12 @@
       <c r="G135" s="37"/>
       <c r="H135" s="37"/>
       <c r="I135" s="42"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38"/>
+      <c r="J135" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K135" s="38" t="s">
+        <v>229</v>
+      </c>
       <c r="L135" s="38"/>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8829,9 +9033,15 @@
       <c r="G136" s="37"/>
       <c r="H136" s="37"/>
       <c r="I136" s="42"/>
-      <c r="J136" s="38"/>
-      <c r="K136" s="38"/>
-      <c r="L136" s="38"/>
+      <c r="J136" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K136" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L136" s="38" t="s">
+        <v>460</v>
+      </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
       <c r="O136" s="38"/>
@@ -8866,9 +9076,15 @@
       <c r="G137" s="37"/>
       <c r="H137" s="37"/>
       <c r="I137" s="42"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
-      <c r="L137" s="38"/>
+      <c r="J137" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K137" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L137" s="38" t="s">
+        <v>461</v>
+      </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
       <c r="O137" s="38"/>
@@ -8903,9 +9119,15 @@
       <c r="G138" s="37"/>
       <c r="H138" s="37"/>
       <c r="I138" s="42"/>
-      <c r="J138" s="38"/>
-      <c r="K138" s="38"/>
-      <c r="L138" s="38"/>
+      <c r="J138" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K138" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="L138" s="38" t="s">
+        <v>462</v>
+      </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
       <c r="O138" s="38"/>
@@ -8940,9 +9162,15 @@
       <c r="G139" s="37"/>
       <c r="H139" s="37"/>
       <c r="I139" s="42"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="38"/>
-      <c r="L139" s="38"/>
+      <c r="J139" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K139" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L139" s="38" t="s">
+        <v>463</v>
+      </c>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
       <c r="O139" s="38"/>
@@ -8977,9 +9205,15 @@
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
       <c r="I140" s="42"/>
-      <c r="J140" s="38"/>
-      <c r="K140" s="38"/>
-      <c r="L140" s="38"/>
+      <c r="J140" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K140" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L140" s="38" t="s">
+        <v>463</v>
+      </c>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
       <c r="O140" s="38"/>
@@ -9014,9 +9248,15 @@
       <c r="G141" s="37"/>
       <c r="H141" s="37"/>
       <c r="I141" s="42"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
+      <c r="J141" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K141" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L141" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
       <c r="O141" s="38"/>
@@ -9051,9 +9291,15 @@
       <c r="G142" s="37"/>
       <c r="H142" s="37"/>
       <c r="I142" s="42"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="38"/>
-      <c r="L142" s="38"/>
+      <c r="J142" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K142" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L142" s="38" t="s">
+        <v>465</v>
+      </c>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
       <c r="O142" s="38"/>
@@ -9088,9 +9334,15 @@
       <c r="G143" s="37"/>
       <c r="H143" s="37"/>
       <c r="I143" s="42"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
-      <c r="L143" s="38"/>
+      <c r="J143" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K143" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="L143" s="38" t="s">
+        <v>466</v>
+      </c>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
       <c r="O143" s="38"/>
@@ -9125,9 +9377,15 @@
       <c r="G144" s="37"/>
       <c r="H144" s="37"/>
       <c r="I144" s="42"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="38"/>
-      <c r="L144" s="38"/>
+      <c r="J144" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K144" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="L144" s="38" t="s">
+        <v>467</v>
+      </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
       <c r="O144" s="38"/>
@@ -9162,9 +9420,15 @@
       <c r="G145" s="37"/>
       <c r="H145" s="37"/>
       <c r="I145" s="42"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="38"/>
-      <c r="L145" s="38"/>
+      <c r="J145" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K145" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L145" s="38" t="s">
+        <v>468</v>
+      </c>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
       <c r="O145" s="38"/>
@@ -10605,8 +10869,12 @@
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
       <c r="I184" s="35"/>
-      <c r="J184" s="38"/>
-      <c r="K184" s="38"/>
+      <c r="J184" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="K184" s="38" t="s">
+        <v>234</v>
+      </c>
       <c r="L184" s="35"/>
       <c r="M184" s="38"/>
       <c r="N184" s="38"/>
@@ -10864,9 +11132,15 @@
       <c r="G191" s="48"/>
       <c r="H191" s="48"/>
       <c r="I191" s="49"/>
-      <c r="J191" s="50"/>
-      <c r="K191" s="50"/>
-      <c r="L191" s="50"/>
+      <c r="J191" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="K191" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="L191" s="50" t="s">
+        <v>469</v>
+      </c>
       <c r="M191" s="50"/>
       <c r="N191" s="50"/>
       <c r="O191" s="50"/>
@@ -10901,9 +11175,15 @@
       <c r="G192" s="48"/>
       <c r="H192" s="48"/>
       <c r="I192" s="49"/>
-      <c r="J192" s="50"/>
-      <c r="K192" s="50"/>
-      <c r="L192" s="50"/>
+      <c r="J192" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="K192" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="L192" s="50" t="s">
+        <v>469</v>
+      </c>
       <c r="M192" s="50"/>
       <c r="N192" s="50"/>
       <c r="O192" s="50"/>
@@ -17212,15 +17492,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17364,6 +17635,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17371,14 +17651,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17392,6 +17664,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111JUNIORBIT00/SOSEPE_S.R.L/JUNIORBIT/7/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111JUNIORBIT00/SOSEPE_S.R.L/JUNIORBIT/7/accreditamento-checklist_V8.2.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SERVIZI REGIONALI\Nazionale\FSE 2.0 2022-2026\CASE TEST PSS 1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA45BD-9E3F-40F5-9336-CF35FEABC3BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9AD02D-6902-48F2-AEFD-CA892F65E731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="975" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="468">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1792,31 +1792,25 @@
     <t>La sezione "Visite e ricoveri" essendo opzionale da specifiche, non viene inserita nello structure body</t>
   </si>
   <si>
-    <t>L'interfaccia di inserimento di una terapia farmacologica NON prevede che sia possibile il salvataggio in assenza di una data di inzio della terapia.
-Risulta quindi impossibile per il medico cercare di validare un CDA dove questo dato risulti assente.</t>
-  </si>
-  <si>
-    <t>L'intefaccia di inserimento di un familiare nella seziona anamnesi Famialiare, obbliga il medico all'inserimento del grado di parentela da una combobox non editabile e internamente codificata con i valori da inserire successivamente nel CDA2 del PS.
-Risulta quindi impossibile non popolare il valore dell'attributo code in oggetto di test.</t>
-  </si>
-  <si>
-    <t>In fase di registrazione di un'allergia o intolleranza all'interno dell'applicativo di cartella, viene SEMPRE registrata la data di inserimento e registrazione che verrà poi utilizzata per popolare il campo CDA2 in oggetto.
-Risulta quindi impossibile da parte del medico che chiama i servizi di validazione CDA2, omettere questa data.</t>
-  </si>
-  <si>
-    <t>Analogamente a VALIDAZIONE_CDA2_PSS_CT18_KO, quando il medico inserisce una nuova allergia o intolleranza viene SEMPRE richiesto l'agente (o il principio attivo) che ha scatenato questa reazione.
-Risulta quindi impossibile da parte del medico omettere questa informazione all'interno del CDA2 PS.</t>
-  </si>
-  <si>
-    <t>L'interfaccia permette l'inserimento delle voci già codificate senza permettere nessun inserimento a testo libero.
-Di conseguenza non c'è possibilità da parte del medico che inserisca queste informazioni con sistemi di codifica diversi da quelli enunciati.</t>
-  </si>
-  <si>
-    <t>Il code in oggetto viene popolato automaticamente dal software di cartella, non c'è possibilità da parte del medico che editi in qualche modo questa voce.
-Il campo viene sempre popolato a "S".</t>
-  </si>
-  <si>
     <t>Accreditamento già eseguito</t>
+  </si>
+  <si>
+    <t>Viene mostrato a video una dialog utente : 
+"Impossibile continuare. E stato ricevuto un errore dal servizio di validazione del PSS. Il campo purpose_of_use non è valorizzato"</t>
+  </si>
+  <si>
+    <t>Viene mostrato a video una dialog utente : 
+"Impossibile continuare. E stato ricevuto un errore dal servizio di validazione del PSS. Il campo action_id non è corretto"</t>
+  </si>
+  <si>
+    <t>Viene mostrato a video una dialog contenente questo messaggio :
+"E' stato ricevuto un errore dal servizio di validazione del PSS. JWT payload : Person id presente nel JWT differente dal codice fiscale del paziente previsto nel CDA."</t>
+  </si>
+  <si>
+    <t>Al PLS viene notificato il messaggio di errore bloccante, viene chiuso il processo di validazione.
+Il CDA e il token JWT sono generati dinamicamente all'interno della stessa scheda del paziente per cui il PLS ha deciso di redigere il PSS e sottoporlo al processo di validazione.
+Di conseguenza utilizzando in input la stessa fonte non c'è possibilità da parte del PLS (e del conseguente invio verso i servizi di validazione) che vengano inseriti due CF differenti.
+Il test è stato effettuato per mostrare a video eventuali errori e come vengono segnalati al medico.</t>
   </si>
 </sst>
 </file>
@@ -3966,7 +3960,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
+      <selection pane="bottomRight" activeCell="A131" sqref="A131:XFD131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4403,7 +4397,9 @@
       <c r="N13" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="38"/>
+      <c r="O13" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="P13" s="38" t="s">
         <v>226</v>
       </c>
@@ -4723,7 +4719,9 @@
       <c r="N21" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="38"/>
+      <c r="O21" s="38" t="s">
+        <v>465</v>
+      </c>
       <c r="P21" s="38" t="s">
         <v>226</v>
       </c>
@@ -5033,7 +5031,9 @@
       <c r="N29" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="38"/>
+      <c r="O29" s="38" t="s">
+        <v>456</v>
+      </c>
       <c r="P29" s="38" t="s">
         <v>226</v>
       </c>
@@ -8835,13 +8835,27 @@
       </c>
       <c r="K131" s="38"/>
       <c r="L131" s="38"/>
-      <c r="M131" s="38"/>
-      <c r="N131" s="38"/>
-      <c r="O131" s="38"/>
-      <c r="P131" s="38"/>
-      <c r="Q131" s="38"/>
-      <c r="R131" s="38"/>
-      <c r="S131" s="38"/>
+      <c r="M131" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N131" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O131" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="P131" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q131" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="R131" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="S131" s="38" t="s">
+        <v>467</v>
+      </c>
       <c r="T131" s="38"/>
       <c r="U131" s="39"/>
       <c r="V131" s="40"/>
@@ -9168,9 +9182,7 @@
       <c r="K139" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="L139" s="38" t="s">
-        <v>463</v>
-      </c>
+      <c r="L139" s="38"/>
       <c r="M139" s="38"/>
       <c r="N139" s="38"/>
       <c r="O139" s="38"/>
@@ -9211,9 +9223,7 @@
       <c r="K140" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="L140" s="38" t="s">
-        <v>463</v>
-      </c>
+      <c r="L140" s="38"/>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
       <c r="O140" s="38"/>
@@ -9254,9 +9264,7 @@
       <c r="K141" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="L141" s="38" t="s">
-        <v>464</v>
-      </c>
+      <c r="L141" s="38"/>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
       <c r="O141" s="38"/>
@@ -9297,9 +9305,7 @@
       <c r="K142" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="L142" s="38" t="s">
-        <v>465</v>
-      </c>
+      <c r="L142" s="38"/>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
       <c r="O142" s="38"/>
@@ -9340,9 +9346,7 @@
       <c r="K143" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="L143" s="38" t="s">
-        <v>466</v>
-      </c>
+      <c r="L143" s="38"/>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
       <c r="O143" s="38"/>
@@ -9383,9 +9387,7 @@
       <c r="K144" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="L144" s="38" t="s">
-        <v>467</v>
-      </c>
+      <c r="L144" s="38"/>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
       <c r="O144" s="38"/>
@@ -9426,9 +9428,7 @@
       <c r="K145" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="L145" s="38" t="s">
-        <v>468</v>
-      </c>
+      <c r="L145" s="38"/>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
       <c r="O145" s="38"/>
@@ -11139,7 +11139,7 @@
         <v>235</v>
       </c>
       <c r="L191" s="50" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M191" s="50"/>
       <c r="N191" s="50"/>
@@ -11182,7 +11182,7 @@
         <v>235</v>
       </c>
       <c r="L192" s="50" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M192" s="50"/>
       <c r="N192" s="50"/>
@@ -17492,6 +17492,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17635,22 +17650,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17668,31 +17693,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111JUNIORBIT00/SOSEPE_S.R.L/JUNIORBIT/7/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111JUNIORBIT00/SOSEPE_S.R.L/JUNIORBIT/7/accreditamento-checklist_V8.2.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SERVIZI REGIONALI\Nazionale\FSE 2.0 2022-2026\CASE TEST PSS 1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9AD02D-6902-48F2-AEFD-CA892F65E731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67716826-FE16-476A-8A09-52F36A6FDB7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="975" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1731,12 +1731,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.467ffdcd304925eefdbefe1090e5ac75d679495c7e3561c8f0d3a0514d37260c.54f2499907^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-01-29T14:17:57Z</t>
-  </si>
-  <si>
-    <t>1373d9a6af7044db</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -1755,12 +1749,6 @@
 In conclusione, è l'applicativo che, a priori, compila i valori del JWT e il PLS non ha nessun tipo di accesso alla sua compilazione.</t>
   </si>
   <si>
-    <t>2024-01-29T14:24:14Z</t>
-  </si>
-  <si>
-    <t>fae42361425536ee</t>
-  </si>
-  <si>
     <t>Il PLS viene avvisato con l'errore mostrato a video e viene annullato l'invio del PS.
 Il test è stato effettuato per completezza e per mostrarvi l'eventuale finestra di dialogo che viene mostrata al medico in caso di errore.
 Per quanto riguarda questo specifico test non c'è possibilità da parte del medico di modificare il contenuto dei campi presenti nel token che vengono demandati completamente all'applicativo nella sua compilazione.
@@ -1773,15 +1761,6 @@
 "Se il problema dovesse persistere contattere l'help desk di Junior Bit."</t>
   </si>
   <si>
-    <t>2023-11-09T12:01:01Z</t>
-  </si>
-  <si>
-    <t>259d37d522348629</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.442cad0d64820a099ee7d33aad276c1f1bd4920047942c752dded4917b27f7d3.c2c25144bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Essendo comunque una sezione obbligatoria, non c'è modo che il medico possa omettere questa sezione nel compilare il CDA</t>
   </si>
   <si>
@@ -1811,6 +1790,27 @@
 Il CDA e il token JWT sono generati dinamicamente all'interno della stessa scheda del paziente per cui il PLS ha deciso di redigere il PSS e sottoporlo al processo di validazione.
 Di conseguenza utilizzando in input la stessa fonte non c'è possibilità da parte del PLS (e del conseguente invio verso i servizi di validazione) che vengano inseriti due CF differenti.
 Il test è stato effettuato per mostrare a video eventuali errori e come vengono segnalati al medico.</t>
+  </si>
+  <si>
+    <t>73f9ccd6843d14fd5eb38a731d880065</t>
+  </si>
+  <si>
+    <t>2026-02-10T12:12:50Z</t>
+  </si>
+  <si>
+    <t>2bd81b8ad6606022675b0dbfd4bc49d8</t>
+  </si>
+  <si>
+    <t>2026-02-10T12:18:47Z</t>
+  </si>
+  <si>
+    <t>8ad4a3edb79ef22fdd44fda84daf1b87</t>
+  </si>
+  <si>
+    <t>2026-02-10T12:27:05Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.f3cd68ef8cad77c24af64f13ceb67704fd7984c39df367465f3f36e50aa2d7ef.7ce5c1affe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3957,10 +3957,10 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A131" sqref="A131:XFD131"/>
+      <selection pane="bottomRight" activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4375,16 +4375,16 @@
         <v>43</v>
       </c>
       <c r="F13" s="57">
-        <v>45320</v>
+        <v>46063</v>
       </c>
       <c r="G13" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="I13" s="58" t="s">
         <v>446</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>447</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>448</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>64</v>
@@ -4398,7 +4398,7 @@
         <v>64</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="P13" s="38" t="s">
         <v>226</v>
@@ -4406,7 +4406,7 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
@@ -4445,7 +4445,7 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
@@ -4484,7 +4484,7 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
@@ -4523,7 +4523,7 @@
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
@@ -4697,16 +4697,16 @@
         <v>55</v>
       </c>
       <c r="F21" s="57">
-        <v>45320</v>
+        <v>46063</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H21" s="58" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="I21" s="58" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>64</v>
@@ -4720,7 +4720,7 @@
         <v>64</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="P21" s="38" t="s">
         <v>226</v>
@@ -4728,7 +4728,7 @@
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
@@ -5032,7 +5032,7 @@
         <v>64</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>226</v>
@@ -5044,7 +5044,7 @@
         <v>226</v>
       </c>
       <c r="S29" s="38" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39" t="s">
@@ -8819,16 +8819,16 @@
         <v>333</v>
       </c>
       <c r="F131" s="57">
-        <v>45239</v>
+        <v>46063</v>
       </c>
       <c r="G131" s="58" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H131" s="58" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="I131" s="58" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="J131" s="38" t="s">
         <v>64</v>
@@ -8842,7 +8842,7 @@
         <v>64</v>
       </c>
       <c r="O131" s="38" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="P131" s="38" t="s">
         <v>226</v>
@@ -8854,7 +8854,7 @@
         <v>226</v>
       </c>
       <c r="S131" s="38" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="T131" s="38"/>
       <c r="U131" s="39"/>
@@ -9054,7 +9054,7 @@
         <v>235</v>
       </c>
       <c r="L136" s="38" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -9097,7 +9097,7 @@
         <v>235</v>
       </c>
       <c r="L137" s="38" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -9140,7 +9140,7 @@
         <v>235</v>
       </c>
       <c r="L138" s="38" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -11139,7 +11139,7 @@
         <v>235</v>
       </c>
       <c r="L191" s="50" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M191" s="50"/>
       <c r="N191" s="50"/>
@@ -11182,7 +11182,7 @@
         <v>235</v>
       </c>
       <c r="L192" s="50" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M192" s="50"/>
       <c r="N192" s="50"/>
@@ -17492,21 +17492,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -17650,32 +17635,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17693,6 +17668,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
